--- a/paramData Excels/Q0006.xlsx
+++ b/paramData Excels/Q0006.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$52</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="287">
   <si>
     <t>string</t>
   </si>
@@ -348,9 +349,6 @@
     <t>Terminal Bonus</t>
   </si>
   <si>
-    <t>UL Dededuction Frequency</t>
-  </si>
-  <si>
     <t>GSV Method</t>
   </si>
   <si>
@@ -462,18 +460,9 @@
     <t>MatMethod</t>
   </si>
   <si>
-    <t>MaxAge</t>
-  </si>
-  <si>
-    <t>MaxPpt</t>
-  </si>
-  <si>
     <t>MaxSA</t>
   </si>
   <si>
-    <t>MaxTerm</t>
-  </si>
-  <si>
     <t>MinSA</t>
   </si>
   <si>
@@ -777,15 +766,6 @@
     <t>Replaced with new field</t>
   </si>
   <si>
-    <t>Min.Age - Removed</t>
-  </si>
-  <si>
-    <t>Min.PPT - Removed</t>
-  </si>
-  <si>
-    <t>Min.Term - Removed</t>
-  </si>
-  <si>
     <t>LOYALBONMETH</t>
   </si>
   <si>
@@ -795,13 +775,160 @@
     <t>INTERIMBONM</t>
   </si>
   <si>
-    <t>Guaranteed Bonus Method</t>
-  </si>
-  <si>
-    <t>Interim Bonus Method</t>
-  </si>
-  <si>
-    <t>Loyalty Bonus Method</t>
+    <t>The method used for Age Calculation</t>
+  </si>
+  <si>
+    <t>The method used for Anniversary Calculation</t>
+  </si>
+  <si>
+    <t>The procedure for arriving at the Annuity</t>
+  </si>
+  <si>
+    <t>The strategy to compute Commission</t>
+  </si>
+  <si>
+    <t>The computation of Death Method</t>
+  </si>
+  <si>
+    <t>Guaranteed Bonus is configured</t>
+  </si>
+  <si>
+    <t>Bonus for the Interim period</t>
+  </si>
+  <si>
+    <t>Method to calculate Loan</t>
+  </si>
+  <si>
+    <t>Method to calculate Maturity</t>
+  </si>
+  <si>
+    <t>Maximum Age at entry</t>
+  </si>
+  <si>
+    <t>Maximum Premium Paying term</t>
+  </si>
+  <si>
+    <t>Maximum Insurance Cover to be provided</t>
+  </si>
+  <si>
+    <t>Maximum Term of Insurance Coverage</t>
+  </si>
+  <si>
+    <t>Minimum Age at Entry</t>
+  </si>
+  <si>
+    <t>Minimum Term upto which Premia needs to be paid</t>
+  </si>
+  <si>
+    <t>Minimum Insurance Coverage in Currrency</t>
+  </si>
+  <si>
+    <t>NFO Method of Insurance Coverage</t>
+  </si>
+  <si>
+    <t>Method to Calculate a portion of the Surrender Value</t>
+  </si>
+  <si>
+    <t>Addition to existing Premium</t>
+  </si>
+  <si>
+    <t>Computation of Reversionary Bonus</t>
+  </si>
+  <si>
+    <t>Type of Survival Benefit Payment</t>
+  </si>
+  <si>
+    <t>Method of payment of Survival Benefit</t>
+  </si>
+  <si>
+    <t>Frequency to Deduct Unit Linked Policies</t>
+  </si>
+  <si>
+    <t>Guaranteed Surrender Value Method</t>
+  </si>
+  <si>
+    <t>Special Surrender Value Method</t>
+  </si>
+  <si>
+    <t>Bonus Surrender Value Method</t>
+  </si>
+  <si>
+    <t>Mortality Parameter of Insurance Coverage</t>
+  </si>
+  <si>
+    <t>Type of Premium Calculation</t>
+  </si>
+  <si>
+    <t>Type of Discounts applicable under the Product</t>
+  </si>
+  <si>
+    <t>Arrival of Frequency Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiver Method </t>
+  </si>
+  <si>
+    <t>Unit Linked Allocation Method</t>
+  </si>
+  <si>
+    <t>Unit Linked Mortality Frequency</t>
+  </si>
+  <si>
+    <t>Unit Linked Mortality Calculation Type</t>
+  </si>
+  <si>
+    <t>Unit Linked Mortality Deduction Method</t>
+  </si>
+  <si>
+    <t>Unit Linked Fee Frequency</t>
+  </si>
+  <si>
+    <t>Unit Linked Fee Type</t>
+  </si>
+  <si>
+    <t>Unit Linked Fee Method</t>
+  </si>
+  <si>
+    <t>Unit Linked Fund Rules</t>
+  </si>
+  <si>
+    <t>The Classification of Death Types</t>
+  </si>
+  <si>
+    <t>Bonus Payment for being consistent to the policy beyond a fixed term</t>
+  </si>
+  <si>
+    <t>Premium to be Increased in terms of Years of Payment</t>
+  </si>
+  <si>
+    <t>The Method to arrive at Premium</t>
+  </si>
+  <si>
+    <t>Bonus accrued at the completion of the contract</t>
+  </si>
+  <si>
+    <t>Method to arrive at the Dividend</t>
+  </si>
+  <si>
+    <t>Process of Discount Method</t>
+  </si>
+  <si>
+    <t>Minimum Insurance Coverage Period</t>
+  </si>
+  <si>
+    <t>Minimum Sum Assured to be paid in the event of the contigency</t>
+  </si>
+  <si>
+    <t>MRT Method for calculation of year on benefit schedule</t>
+  </si>
+  <si>
+    <t>MRT Interest rates allowed for the product</t>
+  </si>
+  <si>
+    <t>Help_text</t>
+  </si>
+  <si>
+    <t>help_desc</t>
   </si>
 </sst>
 </file>
@@ -897,12 +1024,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -925,6 +1046,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -938,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -949,17 +1076,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,9 +1411,10 @@
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1337,30 +1464,36 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z1" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -1371,35 +1504,35 @@
       <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S2" t="s">
-        <v>173</v>
-      </c>
-      <c r="V2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="6">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
         <v>70</v>
@@ -1410,32 +1543,32 @@
       <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>112</v>
+      <c r="J3" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S3" t="s">
-        <v>175</v>
-      </c>
-      <c r="V3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
         <v>70</v>
@@ -1446,32 +1579,32 @@
       <c r="H4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>73</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S4" t="s">
-        <v>174</v>
-      </c>
-      <c r="V4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
         <v>70</v>
@@ -1482,32 +1615,32 @@
       <c r="H5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S5" t="s">
-        <v>177</v>
-      </c>
-      <c r="V5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>182</v>
+        <v>123</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -1518,32 +1651,32 @@
       <c r="H6" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>76</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="V6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -1554,32 +1687,32 @@
       <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S7" t="s">
-        <v>171</v>
-      </c>
-      <c r="V7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>172</v>
+        <v>125</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F8" t="s">
         <v>70</v>
@@ -1590,32 +1723,32 @@
       <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>119</v>
+      <c r="J8" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" s="12" t="s">
+      <c r="O8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z8" t="s">
         <v>240</v>
       </c>
-      <c r="V8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>172</v>
+        <v>126</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>70</v>
@@ -1626,32 +1759,32 @@
       <c r="H9" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S9" s="12" t="s">
+      <c r="O9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z9" t="s">
         <v>241</v>
       </c>
-      <c r="V9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>172</v>
+        <v>127</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1662,32 +1795,32 @@
       <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>77</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="V10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>172</v>
+        <v>128</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1698,35 +1831,35 @@
       <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>114</v>
+      <c r="O11" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="R11" t="s">
-        <v>118</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="V11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>172</v>
+        <v>129</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F12" t="s">
         <v>70</v>
@@ -1737,32 +1870,32 @@
       <c r="H12" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>81</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="V12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>218</v>
+      <c r="D13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -1773,32 +1906,32 @@
       <c r="H13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>221</v>
+      <c r="J13" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="V13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6">
         <v>13</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>218</v>
+      <c r="D14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>214</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
@@ -1809,29 +1942,29 @@
       <c r="H14" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>219</v>
+      <c r="J14" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="V14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="6">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
@@ -1851,232 +1984,232 @@
       <c r="K15" t="s">
         <v>71</v>
       </c>
-      <c r="V15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="6">
         <v>15</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="16">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="W17" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="16">
+        <v>17</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="W18" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="16">
+        <v>18</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="W19" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="16">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="V16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="18">
-        <v>16</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="E20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="W20" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="16">
+        <v>20</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" t="s">
-        <v>71</v>
-      </c>
-      <c r="O17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="V17" t="s">
-        <v>236</v>
-      </c>
-      <c r="W17" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="18">
-        <v>17</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="K18" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="V18" t="s">
-        <v>237</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="18">
-        <v>18</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="K19" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="V19" t="s">
-        <v>238</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="18">
-        <v>19</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="F21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="W21" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="K20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="W20" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="18">
-        <v>20</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="K21" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="W21" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="6">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>20</v>
@@ -2096,20 +2229,20 @@
       <c r="K22" t="s">
         <v>71</v>
       </c>
-      <c r="V22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Z22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F23" t="s">
         <v>70</v>
@@ -2120,32 +2253,32 @@
       <c r="H23" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="V23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>172</v>
+        <v>133</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F24" t="s">
         <v>70</v>
@@ -2156,32 +2289,32 @@
       <c r="H24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>85</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="V24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="6">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
         <v>70</v>
@@ -2198,28 +2331,28 @@
       <c r="K25" t="s">
         <v>71</v>
       </c>
-      <c r="O25" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="V25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O25" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>20</v>
@@ -2239,25 +2372,25 @@
       <c r="K26" t="s">
         <v>71</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="V26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="Z26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
@@ -2268,32 +2401,32 @@
       <c r="H27" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>80</v>
       </c>
       <c r="K27" t="s">
         <v>71</v>
       </c>
-      <c r="O27" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="V27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>172</v>
+        <v>137</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F28" t="s">
         <v>70</v>
@@ -2304,32 +2437,32 @@
       <c r="H28" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K28" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="V28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>172</v>
+        <v>138</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F29" t="s">
         <v>70</v>
@@ -2340,32 +2473,32 @@
       <c r="H29" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>89</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
       </c>
-      <c r="O29" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="V29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>172</v>
+        <v>139</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F30" t="s">
         <v>70</v>
@@ -2376,32 +2509,32 @@
       <c r="H30" t="s">
         <v>70</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>90</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
       </c>
-      <c r="O30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="V30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O30" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F31" t="s">
         <v>70</v>
@@ -2412,32 +2545,32 @@
       <c r="H31" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>91</v>
       </c>
       <c r="K31" t="s">
         <v>71</v>
       </c>
-      <c r="O31" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="O31" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6">
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>172</v>
+        <v>141</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
@@ -2448,32 +2581,32 @@
       <c r="H32" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>92</v>
       </c>
       <c r="K32" t="s">
         <v>71</v>
       </c>
-      <c r="O32" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="V32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6">
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>172</v>
+        <v>142</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F33" t="s">
         <v>70</v>
@@ -2484,32 +2617,32 @@
       <c r="H33" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>169</v>
+      <c r="J33" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="K33" t="s">
         <v>71</v>
       </c>
-      <c r="O33" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="V33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O33" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6">
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>172</v>
+        <v>143</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F34" t="s">
         <v>70</v>
@@ -2520,32 +2653,32 @@
       <c r="H34" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>94</v>
+      <c r="J34" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="K34" t="s">
         <v>71</v>
       </c>
-      <c r="O34" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="V34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>172</v>
+        <v>144</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F35" t="s">
         <v>70</v>
@@ -2556,32 +2689,32 @@
       <c r="H35" t="s">
         <v>70</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>95</v>
+      <c r="J35" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K35" t="s">
         <v>71</v>
       </c>
-      <c r="O35" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="V35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O35" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6">
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>172</v>
+        <v>145</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F36" t="s">
         <v>70</v>
@@ -2592,32 +2725,32 @@
       <c r="H36" t="s">
         <v>70</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>113</v>
+      <c r="J36" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="K36" t="s">
         <v>71</v>
       </c>
-      <c r="O36" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="V36" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>172</v>
+        <v>146</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F37" t="s">
         <v>70</v>
@@ -2628,32 +2761,32 @@
       <c r="H37" t="s">
         <v>70</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>96</v>
+      <c r="J37" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
       </c>
-      <c r="O37" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="V37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O37" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6">
         <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>172</v>
+        <v>147</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F38" t="s">
         <v>70</v>
@@ -2664,29 +2797,29 @@
       <c r="H38" t="s">
         <v>70</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>97</v>
+      <c r="J38" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
       </c>
-      <c r="O38" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="V38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6">
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>69</v>
@@ -2700,32 +2833,32 @@
       <c r="H39" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>98</v>
+      <c r="J39" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S39" t="s">
-        <v>170</v>
-      </c>
-      <c r="V39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6">
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>172</v>
+        <v>148</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F40" t="s">
         <v>70</v>
@@ -2736,32 +2869,32 @@
       <c r="H40" t="s">
         <v>70</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>99</v>
+      <c r="J40" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
       </c>
-      <c r="O40" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="V40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O40" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>172</v>
+        <v>149</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F41" t="s">
         <v>70</v>
@@ -2773,28 +2906,28 @@
         <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
       </c>
-      <c r="O41" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="V41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6">
         <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>19</v>
@@ -2808,29 +2941,29 @@
       <c r="H42" t="s">
         <v>70</v>
       </c>
-      <c r="J42" s="14" t="s">
-        <v>101</v>
+      <c r="J42" t="s">
+        <v>100</v>
       </c>
       <c r="K42" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="V42" t="s">
-        <v>101</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>162</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="6">
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>19</v>
@@ -2844,29 +2977,29 @@
       <c r="H43" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>102</v>
+      <c r="J43" t="s">
+        <v>101</v>
       </c>
       <c r="K43" t="s">
         <v>71</v>
       </c>
-      <c r="O43" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="V43" t="s">
-        <v>102</v>
-      </c>
-      <c r="X43" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>163</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6">
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>19</v>
@@ -2880,29 +3013,29 @@
       <c r="H44" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="14" t="s">
-        <v>103</v>
+      <c r="J44" t="s">
+        <v>102</v>
       </c>
       <c r="K44" t="s">
         <v>71</v>
       </c>
-      <c r="O44" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="V44" t="s">
-        <v>103</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>161</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6">
         <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>0</v>
@@ -2916,32 +3049,32 @@
       <c r="H45" t="s">
         <v>70</v>
       </c>
-      <c r="J45" s="14" t="s">
-        <v>104</v>
+      <c r="J45" t="s">
+        <v>103</v>
       </c>
       <c r="K45" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="V45" t="s">
-        <v>104</v>
-      </c>
-      <c r="X45" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>160</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6">
         <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>172</v>
+        <v>154</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F46" t="s">
         <v>70</v>
@@ -2952,32 +3085,32 @@
       <c r="H46" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>105</v>
+      <c r="J46" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="K46" t="s">
         <v>71</v>
       </c>
-      <c r="O46" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="V46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="6">
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>172</v>
+        <v>155</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F47" t="s">
         <v>70</v>
@@ -2988,23 +3121,23 @@
       <c r="H47" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>106</v>
+      <c r="J47" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="K47" t="s">
         <v>71</v>
       </c>
-      <c r="O47" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="V47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="6">
         <v>45</v>
@@ -3012,8 +3145,8 @@
       <c r="D48" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>172</v>
+      <c r="E48" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F48" t="s">
         <v>70</v>
@@ -3024,32 +3157,32 @@
       <c r="H48" t="s">
         <v>70</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>107</v>
+      <c r="J48" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="K48" t="s">
         <v>71</v>
       </c>
-      <c r="O48" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S48" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="V48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6">
         <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>172</v>
+        <v>156</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F49" t="s">
         <v>70</v>
@@ -3060,32 +3193,32 @@
       <c r="H49" t="s">
         <v>70</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>108</v>
+      <c r="J49" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="K49" t="s">
         <v>71</v>
       </c>
-      <c r="O49" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S49" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="V49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6">
         <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>172</v>
+        <v>157</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F50" t="s">
         <v>70</v>
@@ -3096,32 +3229,32 @@
       <c r="H50" t="s">
         <v>70</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>109</v>
+      <c r="J50" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="K50" t="s">
         <v>71</v>
       </c>
-      <c r="O50" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S50" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="V50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="6">
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>172</v>
+        <v>158</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F51" t="s">
         <v>70</v>
@@ -3132,31 +3265,31 @@
       <c r="H51" t="s">
         <v>70</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>110</v>
+      <c r="J51" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="K51" t="s">
         <v>71</v>
       </c>
-      <c r="O51" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S51" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="V51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O51" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C52" s="6">
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>172</v>
+        <v>159</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F52" t="s">
         <v>70</v>
@@ -3167,31 +3300,31 @@
       <c r="H52" t="s">
         <v>70</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>111</v>
+      <c r="J52" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="K52" t="s">
         <v>71</v>
       </c>
-      <c r="O52" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="S52" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="V52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O52" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C53" s="6">
         <v>50</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F53" t="s">
         <v>70</v>
@@ -3202,28 +3335,31 @@
       <c r="H53" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>179</v>
+      <c r="J53" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="K53" t="s">
         <v>71</v>
       </c>
       <c r="O53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C54" s="6">
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F54" t="s">
         <v>70</v>
@@ -3234,17 +3370,20 @@
       <c r="H54" t="s">
         <v>70</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>181</v>
+      <c r="J54" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="K54" t="s">
         <v>71</v>
       </c>
       <c r="O54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S54" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3257,288 +3396,435 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="str">
-        <f xml:space="preserve"> MID($A$2,1,1)</f>
-        <v>A</v>
-      </c>
-      <c r="C2" t="str">
-        <f xml:space="preserve"> MID($A$2,1,1)</f>
-        <v>A</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:F2" si="0" xml:space="preserve"> MID($A$2,1,1)</f>
-        <v>A</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>23</v>
       </c>
+      <c r="B50" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/paramData Excels/Q0006.xlsx
+++ b/paramData Excels/Q0006.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80553C52-2066-44E9-B47E-9BA0D8C8364C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="288">
   <si>
     <t>string</t>
   </si>
@@ -913,12 +914,6 @@
     <t>Process of Discount Method</t>
   </si>
   <si>
-    <t>Minimum Insurance Coverage Period</t>
-  </si>
-  <si>
-    <t>Minimum Sum Assured to be paid in the event of the contigency</t>
-  </si>
-  <si>
     <t>MRT Method for calculation of year on benefit schedule</t>
   </si>
   <si>
@@ -929,13 +924,22 @@
   </si>
   <si>
     <t>help_desc</t>
+  </si>
+  <si>
+    <t>The features  / facilities available under the product</t>
+  </si>
+  <si>
+    <t>The procedure for arriving at the MRTA product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Rate (in %) for MRTA product </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,6 +990,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1053,7 +1064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1061,11 +1072,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1086,6 +1112,12 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,9 +1136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1144,9 +1176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,7 +1213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1216,7 +1248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1389,32 +1421,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="R40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53:Z54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,13 +1508,13 @@
         <v>16</v>
       </c>
       <c r="Z1" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>116</v>
       </c>
@@ -1519,11 +1551,14 @@
       <c r="S2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="18" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA2" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6">
         <v>2</v>
@@ -1555,11 +1590,11 @@
       <c r="S3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6">
         <v>3</v>
@@ -1591,11 +1626,11 @@
       <c r="S4" t="s">
         <v>170</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6">
         <v>4</v>
@@ -1627,11 +1662,11 @@
       <c r="S5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6">
         <v>5</v>
@@ -1663,11 +1698,11 @@
       <c r="S6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="18" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6">
         <v>6</v>
@@ -1699,11 +1734,11 @@
       <c r="S7" t="s">
         <v>167</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="6">
         <v>7</v>
@@ -1735,11 +1770,11 @@
       <c r="S8" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6">
         <v>8</v>
@@ -1771,11 +1806,11 @@
       <c r="S9" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6">
         <v>9</v>
@@ -1807,11 +1842,11 @@
       <c r="S10" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <v>10</v>
@@ -1846,11 +1881,11 @@
       <c r="S11" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6">
         <v>11</v>
@@ -1882,11 +1917,11 @@
       <c r="S12" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="6">
         <v>12</v>
@@ -1918,11 +1953,11 @@
       <c r="S13" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="6">
         <v>13</v>
@@ -1954,11 +1989,11 @@
       <c r="S14" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6">
         <v>14</v>
@@ -1984,11 +2019,11 @@
       <c r="K15" t="s">
         <v>71</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6">
         <v>15</v>
@@ -2020,11 +2055,11 @@
       <c r="S16" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="18" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="16">
         <v>16</v>
@@ -2057,11 +2092,11 @@
       <c r="W17" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="16">
         <v>17</v>
@@ -2094,11 +2129,11 @@
       <c r="W18" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="16">
         <v>18</v>
@@ -2131,11 +2166,11 @@
       <c r="W19" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="Z19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z19" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="16">
         <v>19</v>
@@ -2168,8 +2203,11 @@
       <c r="W20" s="15" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z20" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="16">
         <v>20</v>
@@ -2202,8 +2240,11 @@
       <c r="W21" s="15" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6">
         <v>18</v>
@@ -2229,11 +2270,11 @@
       <c r="K22" t="s">
         <v>71</v>
       </c>
-      <c r="Z22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z22" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6">
         <v>20</v>
@@ -2265,11 +2306,11 @@
       <c r="S23" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="Z23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z23" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6">
         <v>21</v>
@@ -2301,11 +2342,11 @@
       <c r="S24" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="Z24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z24" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="6">
         <v>22</v>
@@ -2342,11 +2383,11 @@
       <c r="S25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="Z25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z25" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="6">
         <v>23</v>
@@ -2377,11 +2418,11 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-      <c r="Z26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z26" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="6">
         <v>24</v>
@@ -2413,11 +2454,11 @@
       <c r="S27" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="Z27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z27" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6">
         <v>25</v>
@@ -2449,11 +2490,11 @@
       <c r="S28" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="Z28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z28" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6">
         <v>26</v>
@@ -2485,11 +2526,11 @@
       <c r="S29" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="Z29" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z29" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="6">
         <v>27</v>
@@ -2521,11 +2562,11 @@
       <c r="S30" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="Z30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z30" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="6">
         <v>28</v>
@@ -2557,11 +2598,11 @@
       <c r="S31" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="Z31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z31" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6">
         <v>29</v>
@@ -2593,11 +2634,11 @@
       <c r="S32" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="Z32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z32" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6">
         <v>30</v>
@@ -2629,11 +2670,11 @@
       <c r="S33" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="Z33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z33" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="6">
         <v>31</v>
@@ -2665,11 +2706,11 @@
       <c r="S34" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="Z34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z34" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="6">
         <v>32</v>
@@ -2701,11 +2742,11 @@
       <c r="S35" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="Z35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z35" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="6">
         <v>33</v>
@@ -2737,11 +2778,11 @@
       <c r="S36" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="Z36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6">
         <v>34</v>
@@ -2773,11 +2814,11 @@
       <c r="S37" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="Z37" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="6">
         <v>35</v>
@@ -2809,11 +2850,11 @@
       <c r="S38" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="Z38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z38" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6">
         <v>36</v>
@@ -2845,11 +2886,11 @@
       <c r="S39" t="s">
         <v>166</v>
       </c>
-      <c r="Z39" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z39" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="6">
         <v>37</v>
@@ -2881,11 +2922,11 @@
       <c r="S40" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="Z40" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z40" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="6">
         <v>38</v>
@@ -2917,11 +2958,11 @@
       <c r="S41" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="Z41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z41" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="6">
         <v>39</v>
@@ -2953,11 +2994,11 @@
       <c r="X42" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z42" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="6">
         <v>40</v>
@@ -2989,11 +3030,11 @@
       <c r="X43" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="Z43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z43" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6">
         <v>41</v>
@@ -3025,11 +3066,11 @@
       <c r="X44" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="Z44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z44" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="6">
         <v>42</v>
@@ -3061,11 +3102,11 @@
       <c r="X45" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="Z45" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z45" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="6">
         <v>43</v>
@@ -3097,11 +3138,11 @@
       <c r="S46" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Z46" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z46" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="6">
         <v>44</v>
@@ -3133,11 +3174,11 @@
       <c r="S47" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="Z47" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z47" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="6">
         <v>45</v>
@@ -3169,11 +3210,11 @@
       <c r="S48" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="Z48" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z48" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="6">
         <v>46</v>
@@ -3205,11 +3246,11 @@
       <c r="S49" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="Z49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z49" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="6">
         <v>47</v>
@@ -3241,11 +3282,11 @@
       <c r="S50" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="Z50" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z50" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6">
         <v>48</v>
@@ -3277,11 +3318,11 @@
       <c r="S51" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Z51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z51" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C52" s="6">
         <v>49</v>
       </c>
@@ -3312,11 +3353,11 @@
       <c r="S52" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="Z52" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z52" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C53" s="6">
         <v>50</v>
       </c>
@@ -3347,11 +3388,11 @@
       <c r="S53" t="s">
         <v>180</v>
       </c>
-      <c r="Z53" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z53" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C54" s="6">
         <v>51</v>
       </c>
@@ -3382,12 +3423,12 @@
       <c r="S54" t="s">
         <v>179</v>
       </c>
-      <c r="Z54" t="s">
-        <v>284</v>
+      <c r="Z54" s="18" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V52"/>
+  <autoFilter ref="A1:V52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3395,26 +3436,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3422,7 +3463,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3430,7 +3471,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3438,7 +3479,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3487,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3454,7 +3495,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3462,7 +3503,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3470,7 +3511,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3478,7 +3519,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3486,7 +3527,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3494,7 +3535,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3502,7 +3543,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3510,7 +3551,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3518,7 +3559,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3526,7 +3567,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3534,7 +3575,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3542,7 +3583,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -3550,7 +3591,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3558,7 +3599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3566,7 +3607,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3574,7 +3615,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3582,7 +3623,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3590,7 +3631,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3598,7 +3639,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3606,7 +3647,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3614,7 +3655,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3622,7 +3663,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3630,7 +3671,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -3638,7 +3679,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3646,7 +3687,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -3654,7 +3695,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -3662,7 +3703,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3670,7 +3711,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -3678,7 +3719,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -3686,7 +3727,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -3694,7 +3735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -3702,7 +3743,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -3710,7 +3751,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -3718,7 +3759,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3726,7 +3767,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -3734,7 +3775,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -3742,7 +3783,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3750,7 +3791,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3758,7 +3799,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3766,7 +3807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3774,7 +3815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -3782,7 +3823,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3790,7 +3831,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3798,7 +3839,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -3813,16 +3854,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
